--- a/src/Excel/Data/Countries/eg.xlsx
+++ b/src/Excel/Data/Countries/eg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -51,45 +51,21 @@
     <t>TargetDate</t>
   </si>
   <si>
-    <t>كم باقي على الباب 2025</t>
-  </si>
-  <si>
     <t>back-to-school.webp</t>
   </si>
   <si>
-    <t>schools</t>
-  </si>
-  <si>
     <t>هو حدث سنوي ينتظره العديد من الناس. سنتحدث في هذا المقال عن التفاصيل الكاملة لهذا الحدث، بدءًا من موعده وصولًا إلى التحضير المثالي له. تابع القراءة لتكتشف كيفية الاستعداد لهذا الحدث الهام.</t>
   </si>
   <si>
     <t>هو حدث يتميز بأهمية كبيرة في التقويم السنوي. سواء كان مرتبطًا بالتعليم مثل "المدارس" أو مناسبة دينية مثل "رمضان"، فهو يؤثر على جميع جوانب الحياة اليومية. من المهم أن نكون على استعداد لهذا الحدث للحصول على تجربة سلسة وناجحة.</t>
   </si>
   <si>
-    <t>يُعد كم باقي على المدارس مرحلة مهمة في 2025 مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس 2025 يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</t>
-  </si>
-  <si>
-    <t>يجب أن تبدأ التحضير لـ كم باقي على المدارس 2025 قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</t>
-  </si>
-  <si>
-    <t>كم باقي على المدارس 2025 هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس 2025</t>
-  </si>
-  <si>
-    <t>2025-08-24T00:00:00</t>
-  </si>
-  <si>
-    <t>كم باقي على رمضان 2025</t>
-  </si>
-  <si>
     <t>ramadan.webp</t>
   </si>
   <si>
     <t>ramadan</t>
   </si>
   <si>
-    <t>2025-08-25T00:00:00</t>
-  </si>
-  <si>
     <t>Helmet_Description</t>
   </si>
   <si>
@@ -97,12 +73,69 @@
   </si>
   <si>
     <t>مدارس، موعد، دوام، مدرسة</t>
+  </si>
+  <si>
+    <t>TitleInternal</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>EventName</t>
+  </si>
+  <si>
+    <t>TextBelowTitle</t>
+  </si>
+  <si>
+    <t>CountDown</t>
+  </si>
+  <si>
+    <t>المدرسة</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأعلى من معرفة كم باقي يوم على المدرسه بكل سهولة، حيث يبين لكم العد التنازلي لبداية المدرسة عدد الأيام المتبقية على المدرسة.</t>
+  </si>
+  <si>
+    <t>التعد التنازلي ل بدء المدرسة</t>
+  </si>
+  <si>
+    <t>ا</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>كم باقي على المدرسة في مصر</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المدرسة_في_مصر</t>
+  </si>
+  <si>
+    <t>كم باقي على الحدث الأهم في مصر</t>
+  </si>
+  <si>
+    <t>isHoliday</t>
+  </si>
+  <si>
+    <t>كم باقي على عطلة عيد العمال في مصر</t>
+  </si>
+  <si>
+    <t>كم باقي على عطلة رأس السنة الهجرية في مصر</t>
+  </si>
+  <si>
+    <t>كم باقي على عطلة عيد الشهداء في مصر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,10 +165,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,109 +494,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="360" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE(A2," ", E2)</f>
+        <v>كم باقي على المدرسة في مصر 2025</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45301</v>
+      </c>
+      <c r="E2">
+        <v>2025</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="H2" s="1" t="str">
+        <f>CONCATENATE(E2, "-08-24T00:00:00")</f>
+        <v>2025-08-24T00:00:00</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="str">
+        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E2, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E2, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
+        <v>يُعد كم باقي على المدارس مرحلة مهمة في 2025 مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس 2025 يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E2, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
+        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس 2025 قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f>CONCATENATE("كم باقي على المدارس ",E2," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E2)</f>
+        <v>كم باقي على المدارس 2025 هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس 2025</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>CONCATENATE(A3," ", E2)</f>
+        <v>كم باقي على الحدث الأهم في مصر 2025</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="2">
+        <v>45302</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>CONCATENATE(A4, " ",E3)</f>
+        <v xml:space="preserve">كم باقي على عطلة عيد العمال في مصر </v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E4, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E4, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
+        <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E4, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
+        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f>CONCATENATE("كم باقي على المدارس ",E4," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E4)</f>
+        <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <f>CONCATENATE("موعد المدارس ", B2)</f>
-        <v>موعد المدارس 2025</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>CONCATENATE(A5, " ",E4)</f>
+        <v xml:space="preserve">كم باقي على عطلة رأس السنة الهجرية في مصر </v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45303</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E5, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E5, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
+        <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E5, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
+        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f>CONCATENATE("كم باقي على المدارس ",E5," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E5)</f>
+        <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>CONCATENATE(A6, " ",E5)</f>
+        <v xml:space="preserve">كم باقي على عطلة عيد الشهداء في مصر </v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45303</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E6, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E6, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
+        <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E6, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
+        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f>CONCATENATE("كم باقي على المدارس ",E6," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E6)</f>
+        <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Excel/Data/Countries/eg.xlsx
+++ b/src/Excel/Data/Countries/eg.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C9AEB7-E462-4611-BF12-22FDBF4836F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -105,9 +117,6 @@
     <t>countryCode</t>
   </si>
   <si>
-    <t>EG</t>
-  </si>
-  <si>
     <t>كم باقي على المدرسة في مصر</t>
   </si>
   <si>
@@ -127,12 +136,15 @@
   </si>
   <si>
     <t>كم باقي على عطلة عيد الشهداء في مصر</t>
+  </si>
+  <si>
+    <t>eg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -493,28 +505,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -570,12 +583,12 @@
         <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="360" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE(A2," ", E2)</f>
@@ -591,7 +604,7 @@
         <v>2025</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -631,15 +644,15 @@
         <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>CONCATENATE(A3," ", E2)</f>
@@ -651,26 +664,33 @@
       <c r="D3" s="2">
         <v>45302</v>
       </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="H3" s="1" t="str">
+        <f>CONCATENATE(E3, "-08-24T00:00:00")</f>
+        <v>2025-08-24T00:00:00</v>
+      </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="348" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>CONCATENATE(A4, " ",E3)</f>
-        <v xml:space="preserve">كم باقي على عطلة عيد العمال في مصر </v>
+        <v>كم باقي على عطلة عيد العمال في مصر 2025</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -712,15 +732,15 @@
         <v>17</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="348" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>CONCATENATE(A5, " ",E4)</f>
@@ -766,15 +786,15 @@
         <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="348" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>CONCATENATE(A6, " ",E5)</f>
@@ -820,13 +840,13 @@
         <v>17</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -843,7 +863,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -860,7 +880,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -877,7 +897,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -894,7 +914,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -911,7 +931,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -920,7 +940,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -929,7 +949,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -938,7 +958,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -947,7 +967,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -956,7 +976,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -965,7 +985,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -974,7 +994,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -983,7 +1003,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -992,7 +1012,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1001,7 +1021,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>

--- a/src/Excel/Data/Countries/eg.xlsx
+++ b/src/Excel/Data/Countries/eg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C9AEB7-E462-4611-BF12-22FDBF4836F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E808AC-4773-4244-98CC-A32BC4E2CECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -45,9 +45,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Intro</t>
-  </si>
-  <si>
     <t>WhatIs</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>back-to-school.webp</t>
-  </si>
-  <si>
-    <t>هو حدث سنوي ينتظره العديد من الناس. سنتحدث في هذا المقال عن التفاصيل الكاملة لهذا الحدث، بدءًا من موعده وصولًا إلى التحضير المثالي له. تابع القراءة لتكتشف كيفية الاستعداد لهذا الحدث الهام.</t>
   </si>
   <si>
     <t>هو حدث يتميز بأهمية كبيرة في التقويم السنوي. سواء كان مرتبطًا بالتعليم مثل "المدارس" أو مناسبة دينية مثل "رمضان"، فهو يؤثر على جميع جوانب الحياة اليومية. من المهم أن نكون على استعداد لهذا الحدث للحصول على تجربة سلسة وناجحة.</t>
@@ -506,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,19 +511,18 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -538,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -547,16 +540,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -571,31 +564,28 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="362.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>CONCATENATE(A2," ", E2)</f>
         <v>كم باقي على المدرسة في مصر 2025</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>45301</v>
@@ -604,62 +594,59 @@
         <v>2025</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>CONCATENATE(E2, "-08-24T00:00:00")</f>
         <v>2025-08-24T00:00:00</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="str">
         <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E2, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E2, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
         <v>يُعد كم باقي على المدارس مرحلة مهمة في 2025 مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس 2025 يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E2, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
         <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس 2025 قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <f>CONCATENATE("كم باقي على المدارس ",E2," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E2)</f>
         <v>كم باقي على المدارس 2025 هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس 2025</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>CONCATENATE(A3," ", E2)</f>
         <v>كم باقي على الحدث الأهم في مصر 2025</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>45302</v>
@@ -668,185 +655,176 @@
         <v>2025</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>CONCATENATE(E3, "-08-24T00:00:00")</f>
         <v>2025-08-24T00:00:00</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="b">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="348" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="348" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>CONCATENATE(A4, " ",E3)</f>
         <v>كم باقي على عطلة عيد العمال في مصر 2025</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>45303</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="str">
         <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E4, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E4, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
         <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="M4" s="1" t="str">
         <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E4, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
         <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
       </c>
-      <c r="O4" s="1" t="str">
+      <c r="N4" s="1" t="str">
         <f>CONCATENATE("كم باقي على المدارس ",E4," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E4)</f>
         <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="348" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="348" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>CONCATENATE(A5, " ",E4)</f>
         <v xml:space="preserve">كم باقي على عطلة رأس السنة الهجرية في مصر </v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>45303</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="str">
         <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E5, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E5, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
         <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="M5" s="1" t="str">
         <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E5, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
         <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="N5" s="1" t="str">
         <f>CONCATENATE("كم باقي على المدارس ",E5," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E5)</f>
         <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="348" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="348" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>CONCATENATE(A6, " ",E5)</f>
         <v xml:space="preserve">كم باقي على عطلة عيد الشهداء في مصر </v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>45303</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="str">
         <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E6, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E6, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
         <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="M6" s="1" t="str">
         <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E6, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
         <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="N6" s="1" t="str">
         <f>CONCATENATE("كم باقي على المدارس ",E6," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E6)</f>
         <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" t="b">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -861,9 +839,8 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -878,9 +855,8 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -895,9 +871,8 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -912,9 +887,8 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -929,106 +903,94 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
